--- a/Excel/TriggerAreaConfig.xlsx
+++ b/Excel/TriggerAreaConfig.xlsx
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -162,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.35"/>
@@ -566,6 +569,9 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TriggerAreaConfig.xlsx
+++ b/Excel/TriggerAreaConfig.xlsx
@@ -52,43 +52,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入区域，发送事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideSceneComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在书的哪一页（0是首页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UIGuideScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入区域，发送事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnterArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuideSceneComponent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BookIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在书的哪一页（0是首页）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +473,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.35"/>
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -507,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -525,10 +525,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -554,16 +554,16 @@
         <v>3001</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>

--- a/Excel/TriggerAreaConfig.xlsx
+++ b/Excel/TriggerAreaConfig.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE903A9-C996-4FB7-8AC5-65300AD35BD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TriggerArea" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进入区域，发送事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnterArea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,13 +86,29 @@
   </si>
   <si>
     <t>UIGuideScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柚子关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIShaddockSceneComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIShaddockScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,6 +272,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -294,6 +324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,14 +516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
@@ -488,12 +535,12 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -507,13 +554,13 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -525,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,31 +593,48 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>3001</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="5"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/TriggerAreaConfig.xlsx
+++ b/Excel/TriggerAreaConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE903A9-C996-4FB7-8AC5-65300AD35BD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA2BF2-749B-4747-814A-B0EAAEE3B225}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,114 @@
   </si>
   <si>
     <t>UIShaddockScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓鸟关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放鸟关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风筝关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晾衣服关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人走茶凉关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPigScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGirlScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIKiteScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGooseScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIBirdCatchScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIBirdReleaseScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIClothesScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITeaScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIResultScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPigSceneComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGirlSceneComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIKiteSceneComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGooseSceneComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIBirdCatchSceneComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIBirdReleaseSceneComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIClothesSceneComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITeaSceneComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIResultSceneComponent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,18 +274,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,21 +624,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="P13" sqref="P13:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
-    <col min="7" max="8" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
+    <col min="7" max="8" width="28" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -541,99 +648,279 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="C6" s="3">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="2">
         <v>3001</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>3002</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>3005</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>3006</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>3007</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>3008</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>3009</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>3010</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>3100</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TriggerAreaConfig.xlsx
+++ b/Excel/TriggerAreaConfig.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA2BF2-749B-4747-814A-B0EAAEE3B225}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-122" yWindow="475" windowWidth="38635" windowHeight="21247"/>
   </bookViews>
   <sheets>
     <sheet name="TriggerArea" sheetId="1" r:id="rId1"/>
@@ -173,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UIResultScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UIPigSceneComponent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,14 +204,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UIResultSceneComponent</t>
+    <t>UITipsComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITips</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,23 +378,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -431,23 +413,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,14 +588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:P14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
@@ -642,12 +607,12 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -667,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -685,7 +650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -703,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="14.3" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>3001</v>
       </c>
@@ -723,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C7" s="2">
         <v>3002</v>
       </c>
@@ -743,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C8" s="2">
         <v>3003</v>
       </c>
@@ -757,13 +722,13 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" s="2">
         <v>3004</v>
       </c>
@@ -777,13 +742,13 @@
         <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="2">
         <v>3005</v>
       </c>
@@ -797,13 +762,13 @@
         <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" s="2">
         <v>3006</v>
       </c>
@@ -817,13 +782,13 @@
         <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" s="2">
         <v>3007</v>
       </c>
@@ -837,13 +802,13 @@
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C13" s="2">
         <v>3008</v>
       </c>
@@ -857,13 +822,13 @@
         <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="2">
         <v>3009</v>
       </c>
@@ -877,13 +842,13 @@
         <v>37</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="2">
         <v>3010</v>
       </c>
@@ -897,13 +862,13 @@
         <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16" s="2">
         <v>3100</v>
       </c>
@@ -914,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2">
         <v>-1</v>
